--- a/Data/Dialogs/popAbwesenheitAnlegen.xlsx
+++ b/Data/Dialogs/popAbwesenheitAnlegen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE089C-1602-416A-85A9-EA3768632B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A9A9A-5A10-4930-A10D-D49766106A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="924" windowWidth="35220" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="420" yWindow="1116" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Control</t>
   </si>
@@ -45,9 +45,6 @@
     <t>&lt;CHK&gt;</t>
   </si>
   <si>
-    <t>pagTermine</t>
-  </si>
-  <si>
     <t>calVon</t>
   </si>
   <si>
@@ -58,6 +55,45 @@
   </si>
   <si>
     <t>butSpeichern</t>
+  </si>
+  <si>
+    <t>&lt;EMPTY&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ENABLED&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NOP&gt;</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester anlegen</t>
+  </si>
+  <si>
+    <t>&lt;SET&gt;</t>
+  </si>
+  <si>
+    <t>31.12.2025</t>
+  </si>
+  <si>
+    <t>01.01.2026</t>
+  </si>
+  <si>
+    <t>Hoch die Tassen!</t>
+  </si>
+  <si>
+    <t>id=from_date</t>
+  </si>
+  <si>
+    <t>id=till_date</t>
+  </si>
+  <si>
+    <t>id=comment</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>xpath=//button[text()='Speichern']</t>
   </si>
 </sst>
 </file>
@@ -73,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -117,15 +161,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>354222</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>27671</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331362</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>172451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -148,7 +192,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="845820"/>
+          <a:off x="7620" y="1173480"/>
           <a:ext cx="16104762" cy="7228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -458,69 +502,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Dialogs/popAbwesenheitAnlegen.xlsx
+++ b/Data/Dialogs/popAbwesenheitAnlegen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A9A9A-5A10-4930-A10D-D49766106A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF23D134-C6F0-4D1A-8F39-1D0D0A50B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="1116" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>xpath=//button[text()='Speichern']</t>
+    <t>xpath=//div[@id='createAbsenceModal']//button[@type='submit' and text()='Speichern']</t>
   </si>
 </sst>
 </file>
@@ -166,8 +166,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>331362</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>727602</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>172451</xdr:rowOff>
     </xdr:to>
@@ -505,7 +505,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
     <col min="3" max="3" width="26.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>

--- a/Data/Dialogs/popAbwesenheitAnlegen.xlsx
+++ b/Data/Dialogs/popAbwesenheitAnlegen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF23D134-C6F0-4D1A-8F39-1D0D0A50B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D43B95D-A937-433C-9CBF-ED736E95BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1116" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1932" yWindow="612" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Record/Selector</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Action</t>
   </si>
@@ -94,13 +88,28 @@
   </si>
   <si>
     <t>xpath=//div[@id='createAbsenceModal']//button[@type='submit' and text()='Speichern']</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record / Control </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +117,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +136,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,10 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -162,13 +193,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>727602</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>172451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -502,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,94 +552,109 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dialogs/popAbwesenheitAnlegen.xlsx
+++ b/Data/Dialogs/popAbwesenheitAnlegen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D43B95D-A937-433C-9CBF-ED736E95BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B4B96-1736-4F1A-B983-69615B8788A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="612" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="8400" yWindow="636" windowWidth="26088" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Action</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t xml:space="preserve">Record / Control </t>
+  </si>
+  <si>
+    <t>//android.widget.Spinner[@hint='VON:']</t>
+  </si>
+  <si>
+    <t>//android.widget.Spinner[@hint='BIS:']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@hint='KOMMENTAR (NUR FÜR DICH SICHTBAR):']</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text="Speichern"]</t>
   </si>
 </sst>
 </file>
@@ -536,7 +548,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,10 +592,18 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/Dialogs/popAbwesenheitAnlegen.xlsx
+++ b/Data/Dialogs/popAbwesenheitAnlegen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B4B96-1736-4F1A-B983-69615B8788A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B9E17-DBDC-490B-9EA4-7214B1029F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="636" windowWidth="26088" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -105,16 +105,16 @@
     <t xml:space="preserve">Record / Control </t>
   </si>
   <si>
-    <t>//android.widget.Spinner[@hint='VON:']</t>
-  </si>
-  <si>
-    <t>//android.widget.Spinner[@hint='BIS:']</t>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@hint='KOMMENTAR (NUR FÜR DICH SICHTBAR):']</t>
-  </si>
-  <si>
     <t>//android.widget.Button[@text="Speichern"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Spinner[@resource-id="from_date"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Spinner[@resource-id="till_date"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="comment"]</t>
   </si>
 </sst>
 </file>
@@ -204,13 +204,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>727602</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4369962</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>172451</xdr:rowOff>
     </xdr:to>
@@ -235,7 +235,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="1173480"/>
+          <a:off x="0" y="1356360"/>
           <a:ext cx="16104762" cy="7228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -548,16 +548,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="69.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>

--- a/Data/Dialogs/popAbwesenheitAnlegen.xlsx
+++ b/Data/Dialogs/popAbwesenheitAnlegen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B9E17-DBDC-490B-9EA4-7214B1029F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14FE306-ACFE-4853-90CD-E412470A9CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3132" yWindow="3096" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4369962</xdr:colOff>
+      <xdr:colOff>3120282</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>172451</xdr:rowOff>
     </xdr:to>
@@ -548,16 +548,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
